--- a/MBI-CS_Burnout_Calculator.xlsx
+++ b/MBI-CS_Burnout_Calculator.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5B5231EA85C81819B0DDE37AAC29342A1C3C0B7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B6650B-5035-4D49-B6E1-A2BE40E7707E}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Speaking/CRISP/MBI-CS-main/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17797714-EA49-2D44-8023-7A9CF1553849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15380" yWindow="-21860" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBI-CS Survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Category</t>
   </si>
@@ -133,13 +138,16 @@
   </si>
   <si>
     <t>I feel energized when solving complex security challenges.</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,18 +524,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -552,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -564,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -575,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -587,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -598,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -610,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -621,18 +629,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <f>SUM(E3+E5+E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -640,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -648,15 +657,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -664,7 +676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -672,7 +684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -680,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -688,7 +700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -696,7 +708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -704,7 +716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -712,7 +724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -720,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -728,7 +740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -736,15 +748,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="34"/>
+        <cfvo type="num" val="67"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -759,17 +786,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4e24838-0261-4543-bb56-fe8de561f1fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0871C2840F51F4CA0F5F2489C67498A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1e8b63be3d1eaa3bf7aeb57a32b0dd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4e24838-0261-4543-bb56-fe8de561f1fb" xmlns:ns3="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1790665532da1b38498512bef772fb1c" ns2:_="" ns3:_="">
     <xsd:import namespace="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
@@ -1024,14 +1040,51 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4e24838-0261-4543-bb56-fe8de561f1fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{549143D2-17E1-479C-91AD-2EEA38EFDEB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{549143D2-17E1-479C-91AD-2EEA38EFDEB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90759450-94B8-4EBA-B28C-886936A2FBD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47DB64B-53B0-4674-B1CB-8890BC9C468F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
+    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47DB64B-53B0-4674-B1CB-8890BC9C468F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90759450-94B8-4EBA-B28C-886936A2FBD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
+    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/MBI-CS_Burnout_Calculator.xlsx
+++ b/MBI-CS_Burnout_Calculator.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Speaking/CRISP/MBI-CS-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17797714-EA49-2D44-8023-7A9CF1553849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7CC53B-8A51-D24F-BED5-37F1D29EF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15380" yWindow="-21860" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="-20540" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBI-CS Survey" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -77,7 +74,7 @@
     <t>Personal Accomplishment Total:</t>
   </si>
   <si>
-    <t>I feel frustrated when I see repeated security failures despite my efforts.</t>
+    <t>Burnout Risk Interpretation (EE + DP - PA):</t>
   </si>
   <si>
     <t>I feel I am working too hard to maintain security with little organizational support.</t>
@@ -89,19 +86,19 @@
     <t>The 24/7 nature of cybersecurity operations puts too much stress on me.</t>
   </si>
   <si>
+    <t>I feel like I’m at the end of my rope when dealing with security incidents.</t>
+  </si>
+  <si>
+    <t>Depersonalization</t>
+  </si>
+  <si>
+    <t>I sometimes view end users as careless and part of the problem rather than people I need to protect.</t>
+  </si>
+  <si>
+    <t>I’ve become more cynical about leadership’s commitment to cybersecurity.</t>
+  </si>
+  <si>
     <t>If EE + Depersonalization is high &amp; PA is low, burnout risk is high.</t>
-  </si>
-  <si>
-    <t>I feel like I’m at the end of my rope when dealing with security incidents.</t>
-  </si>
-  <si>
-    <t>Depersonalization</t>
-  </si>
-  <si>
-    <t>I sometimes view end users as careless and part of the problem rather than people I need to protect.</t>
-  </si>
-  <si>
-    <t>I’ve become more cynical about leadership’s commitment to cybersecurity.</t>
   </si>
   <si>
     <t>I worry that this job is making me emotionally detached.</t>
@@ -524,7 +521,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,6 +553,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="str">
+        <f ca="1">SUM(C1:C8)</f>
+        <v/>
+      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,9 +568,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <f>SUMIF(A2:A10, "Emotional Exhaustion", C2:C10)</f>
-        <v>0</v>
+      <c r="E3" t="str">
+        <f ca="1">SUMIF(A2:A10, "Emotional Exhaustion", C2:C10)</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -625,6 +626,10 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="str">
+        <f ca="1">C2+C4-C6</f>
+        <v/>
+      </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
@@ -636,9 +641,9 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <f>SUM(E3+E5+E7)</f>
-        <v>0</v>
+      <c r="E9" t="str">
+        <f ca="1">SUM(E3+E5+E7)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -646,31 +651,31 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -678,7 +683,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -686,7 +691,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -774,317 +779,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0871C2840F51F4CA0F5F2489C67498A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1e8b63be3d1eaa3bf7aeb57a32b0dd6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4e24838-0261-4543-bb56-fe8de561f1fb" xmlns:ns3="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1790665532da1b38498512bef772fb1c" ns2:_="" ns3:_="">
-    <xsd:import namespace="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
-    <xsd:import namespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a4e24838-0261-4543-bb56-fe8de561f1fb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e64884b4-af35-43d5-b55d-411bb21e5563" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{69a33b6f-9a5f-4a44-b93e-729698ea6df4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4e24838-0261-4543-bb56-fe8de561f1fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{549143D2-17E1-479C-91AD-2EEA38EFDEB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47DB64B-53B0-4674-B1CB-8890BC9C468F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
-    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90759450-94B8-4EBA-B28C-886936A2FBD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
-    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MBI-CS_Burnout_Calculator.xlsx
+++ b/MBI-CS_Burnout_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7CC53B-8A51-D24F-BED5-37F1D29EF6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E277D3-AD39-0E4E-AAFA-53FB1DC35EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="-20540" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="-20340" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBI-CS Survey" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,6 +661,9 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -668,9 +671,6 @@
       </c>
       <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/MBI-CS_Burnout_Calculator.xlsx
+++ b/MBI-CS_Burnout_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E277D3-AD39-0E4E-AAFA-53FB1DC35EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECDA16-7274-8F41-A8D6-18DA70233FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="-20340" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,9 +641,9 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="str">
-        <f ca="1">SUM(E3+E5+E7)</f>
-        <v/>
+      <c r="E9">
+        <f ca="1">SUM(E3+E5-E7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/MBI-CS_Burnout_Calculator.xlsx
+++ b/MBI-CS_Burnout_Calculator.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttewes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECDA16-7274-8F41-A8D6-18DA70233FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D04FF-A821-45E3-A8AD-E10C402D46A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="-20340" windowWidth="29600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MBI-CS Survey" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Category</t>
   </si>
@@ -74,7 +77,7 @@
     <t>Personal Accomplishment Total:</t>
   </si>
   <si>
-    <t>Burnout Risk Interpretation (EE + DP - PA):</t>
+    <t>I feel frustrated when I see repeated security failures despite my efforts.</t>
   </si>
   <si>
     <t>I feel I am working too hard to maintain security with little organizational support.</t>
@@ -86,6 +89,9 @@
     <t>The 24/7 nature of cybersecurity operations puts too much stress on me.</t>
   </si>
   <si>
+    <t>If EE + Depersonalization is high &amp; PA is low, burnout risk is high.</t>
+  </si>
+  <si>
     <t>I feel like I’m at the end of my rope when dealing with security incidents.</t>
   </si>
   <si>
@@ -98,9 +104,6 @@
     <t>I’ve become more cynical about leadership’s commitment to cybersecurity.</t>
   </si>
   <si>
-    <t>If EE + Depersonalization is high &amp; PA is low, burnout risk is high.</t>
-  </si>
-  <si>
     <t>I worry that this job is making me emotionally detached.</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>I feel energized when solving complex security challenges.</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -521,18 +521,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="85.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,34 +546,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="str">
-        <f ca="1">SUM(C1:C8)</f>
-        <v/>
-      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="str">
-        <f ca="1">SUMIF(A2:A10, "Emotional Exhaustion", C2:C10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>SUMIF(A2:A10, "Emotional Exhaustion", C2:C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -584,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -596,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -607,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -615,26 +611,22 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <f>SUMIF(A16:A22, "Personal Accomplishment", C16:C22)</f>
+        <f>SUMIF(A16:A23, "Personal Accomplishment", C16:C23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="str">
-        <f ca="1">C2+C4-C6</f>
-        <v/>
-      </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -642,62 +634,62 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <f ca="1">SUM(E3+E5-E7)</f>
+        <f>SUM(E3+E5-E7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -705,7 +697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -713,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -721,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -729,7 +721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -737,7 +729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -745,7 +737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -753,15 +745,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -779,4 +768,317 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0871C2840F51F4CA0F5F2489C67498A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1e8b63be3d1eaa3bf7aeb57a32b0dd6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4e24838-0261-4543-bb56-fe8de561f1fb" xmlns:ns3="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1790665532da1b38498512bef772fb1c" ns2:_="" ns3:_="">
+    <xsd:import namespace="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
+    <xsd:import namespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a4e24838-0261-4543-bb56-fe8de561f1fb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e64884b4-af35-43d5-b55d-411bb21e5563" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{69a33b6f-9a5f-4a44-b93e-729698ea6df4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4e24838-0261-4543-bb56-fe8de561f1fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E47DB64B-53B0-4674-B1CB-8890BC9C468F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
+    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90759450-94B8-4EBA-B28C-886936A2FBD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
+    <ds:schemaRef ds:uri="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{549143D2-17E1-479C-91AD-2EEA38EFDEB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>